--- a/Data/Metadata/Posts_SEM_data.xlsx
+++ b/Data/Metadata/Posts_SEM_data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b08f9f412f899893/Documents/GitHub/dual_deflection/Data/Metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="13_ncr:1_{31B371B1-F1C3-47DD-8C4E-6BE392276C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F583ED1F-5BA8-41FA-9723-C1E408FDA2AE}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="13_ncr:1_{31B371B1-F1C3-47DD-8C4E-6BE392276C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A634FD34-D14E-4362-A629-AC1234A24593}"/>
   <bookViews>
-    <workbookView xWindow="38205" yWindow="0" windowWidth="19395" windowHeight="23400" xr2:uid="{1FDB7687-F466-4EF7-8423-10006E60F3F4}"/>
+    <workbookView xWindow="38490" yWindow="0" windowWidth="19110" windowHeight="23400" xr2:uid="{1FDB7687-F466-4EF7-8423-10006E60F3F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$BH$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$BH$93</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="96">
   <si>
     <t>sample_num</t>
   </si>
@@ -401,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -417,7 +417,6 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,6 +437,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -737,13 +740,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE3BFDD-59D1-4B27-9075-EE1358A63C93}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:BH93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="Q52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26:XFD26"/>
+      <selection pane="bottomRight" activeCell="AF63" sqref="AF63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,8 +1031,95 @@
       <c r="AD2" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="AE2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="3" spans="1:60" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" s="1" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>69</v>
       </c>
@@ -1143,7 +1234,7 @@
       <c r="BG3" s="4"/>
       <c r="BH3" s="4"/>
     </row>
-    <row r="4" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>69</v>
       </c>
@@ -1224,7 +1315,7 @@
         <v>10.18</v>
       </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>73</v>
       </c>
@@ -1363,7 +1454,7 @@
       <c r="BG5" s="4"/>
       <c r="BH5" s="4"/>
     </row>
-    <row r="6" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>73</v>
       </c>
@@ -1465,7 +1556,7 @@
         <v>7.0350000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>73</v>
       </c>
@@ -1549,7 +1640,7 @@
         <v>6.2110000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>73</v>
       </c>
@@ -1636,7 +1727,7 @@
         <v>6.6630000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:60" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>73</v>
       </c>
@@ -1744,7 +1835,7 @@
         <v>8.7010000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:60" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>73</v>
       </c>
@@ -1837,7 +1928,7 @@
         <v>9.3030000000000008</v>
       </c>
     </row>
-    <row r="11" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:60" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>73</v>
       </c>
@@ -1950,7 +2041,7 @@
       <c r="BG11"/>
       <c r="BH11"/>
     </row>
-    <row r="12" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:60" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>73</v>
       </c>
@@ -2020,7 +2111,7 @@
       <c r="BG12"/>
       <c r="BH12"/>
     </row>
-    <row r="13" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:60" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>77</v>
       </c>
@@ -2051,7 +2142,7 @@
       </c>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:60" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>77</v>
       </c>
@@ -2168,7 +2259,7 @@
         <v>10.93</v>
       </c>
     </row>
-    <row r="15" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:60" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>77</v>
       </c>
@@ -2291,7 +2382,7 @@
         <v>8.3940000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:60" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>77</v>
       </c>
@@ -2357,7 +2448,7 @@
         <v>10.11</v>
       </c>
     </row>
-    <row r="17" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>77</v>
       </c>
@@ -2459,7 +2550,7 @@
         <v>10.64</v>
       </c>
     </row>
-    <row r="18" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>80</v>
       </c>
@@ -2576,7 +2667,7 @@
         <v>5.6909999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>80</v>
       </c>
@@ -2660,7 +2751,7 @@
         <v>6.8940000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>80</v>
       </c>
@@ -2744,7 +2835,7 @@
         <v>8.968</v>
       </c>
     </row>
-    <row r="21" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>80</v>
       </c>
@@ -2843,7 +2934,7 @@
         <v>5.1269999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>80</v>
       </c>
@@ -2963,7 +3054,7 @@
         <v>7.2590000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>80</v>
       </c>
@@ -3071,7 +3162,7 @@
         <v>7.6779999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>81</v>
       </c>
@@ -3194,7 +3285,7 @@
         <v>8.3520000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>81</v>
       </c>
@@ -3317,7 +3408,7 @@
         <v>10.54</v>
       </c>
     </row>
-    <row r="26" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>81</v>
       </c>
@@ -3348,7 +3439,7 @@
         <f t="shared" si="3"/>
         <v>0.18705653420214161</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="4">
         <f>H26/SQRT(28)</f>
         <v>0.42947407522750214</v>
       </c>
@@ -3437,7 +3528,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="27" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>81</v>
       </c>
@@ -3572,7 +3663,7 @@
         <v>15.98</v>
       </c>
     </row>
-    <row r="28" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>81</v>
       </c>
@@ -3692,7 +3783,7 @@
         <v>14.64</v>
       </c>
     </row>
-    <row r="29" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>81</v>
       </c>
@@ -3791,7 +3882,7 @@
         <v>12.16</v>
       </c>
     </row>
-    <row r="30" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>81</v>
       </c>
@@ -3908,7 +3999,7 @@
         <v>10.41</v>
       </c>
     </row>
-    <row r="31" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>81</v>
       </c>
@@ -4022,7 +4113,7 @@
         <v>13.69</v>
       </c>
     </row>
-    <row r="32" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>81</v>
       </c>
@@ -4142,7 +4233,7 @@
         <v>10.98</v>
       </c>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:60" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>81</v>
       </c>
@@ -4289,7 +4380,7 @@
       <c r="BG33" s="4"/>
       <c r="BH33" s="4"/>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:60" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>81</v>
       </c>
@@ -4440,7 +4531,7 @@
       <c r="BG34" s="4"/>
       <c r="BH34" s="4"/>
     </row>
-    <row r="35" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:60" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>83</v>
       </c>
@@ -4542,7 +4633,7 @@
         <v>7.3940000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:60" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>83</v>
       </c>
@@ -4674,7 +4765,7 @@
         <v>9.8209999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:60" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>83</v>
       </c>
@@ -4809,7 +4900,7 @@
         <v>10.84</v>
       </c>
     </row>
-    <row r="38" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:60" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>83</v>
       </c>
@@ -4944,7 +5035,7 @@
         <v>10.86</v>
       </c>
     </row>
-    <row r="39" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:60" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>83</v>
       </c>
@@ -5091,7 +5182,7 @@
         <v>9.26</v>
       </c>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:60" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>83</v>
       </c>
@@ -5222,7 +5313,7 @@
       <c r="BG40" s="4"/>
       <c r="BH40" s="4"/>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:60" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>83</v>
       </c>
@@ -5243,15 +5334,15 @@
       </c>
       <c r="G41" s="4">
         <f t="shared" si="4"/>
-        <v>9.4377755102040837</v>
+        <v>9.229020000000002</v>
       </c>
       <c r="H41" s="4">
         <f t="shared" si="5"/>
-        <v>1.2967480522654971</v>
+        <v>1.9560626788713651</v>
       </c>
       <c r="I41" s="10">
         <f t="shared" si="3"/>
-        <v>0.13739975599795295</v>
+        <v>0.21194695415887763</v>
       </c>
       <c r="J41" s="10"/>
       <c r="K41" s="4">
@@ -5401,9 +5492,11 @@
       <c r="BG41" s="4">
         <v>10.66</v>
       </c>
-      <c r="BH41" s="4"/>
+      <c r="BH41" s="4">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="42" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:60" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>83</v>
       </c>
@@ -5550,7 +5643,7 @@
       <c r="BG42" s="4"/>
       <c r="BH42" s="4"/>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:60" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>85</v>
       </c>
@@ -5703,7 +5796,7 @@
       <c r="BG43" s="4"/>
       <c r="BH43" s="4"/>
     </row>
-    <row r="44" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:60" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>85</v>
       </c>
@@ -5850,7 +5943,7 @@
       <c r="BG44" s="4"/>
       <c r="BH44" s="4"/>
     </row>
-    <row r="45" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:60" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>85</v>
       </c>
@@ -6009,7 +6102,7 @@
         <v>11.21</v>
       </c>
     </row>
-    <row r="46" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:60" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>85</v>
       </c>
@@ -6144,7 +6237,7 @@
         <v>7.5410000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:60" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>85</v>
       </c>
@@ -6258,7 +6351,7 @@
         <v>8.5980000000000008</v>
       </c>
     </row>
-    <row r="48" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:60" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>85</v>
       </c>
@@ -6393,7 +6486,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="49" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:60" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>85</v>
       </c>
@@ -6522,7 +6615,7 @@
         <v>8.3490000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:60" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>85</v>
       </c>
@@ -6657,7 +6750,7 @@
         <v>8.827</v>
       </c>
     </row>
-    <row r="51" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:60" s="4" customFormat="1" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>85</v>
       </c>
@@ -6786,7 +6879,7 @@
         <v>7.8659999999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:60" s="4" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>63</v>
       </c>
@@ -10716,7 +10809,7 @@
         <v>15.28</v>
       </c>
     </row>
-    <row r="91" spans="1:60" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:60" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>93</v>
       </c>
@@ -10734,25 +10827,25 @@
       </c>
       <c r="J91" s="12"/>
     </row>
-    <row r="92" spans="1:60" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:60" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>95</v>
       </c>
       <c r="G92" s="7">
         <f>AVERAGE(G24:G51)</f>
-        <v>10.322066371160458</v>
+        <v>10.314610817224599</v>
       </c>
       <c r="H92" s="7">
         <f>_xlfn.STDEV.P(G24:G51)</f>
-        <v>1.1934365084457357</v>
+        <v>1.1995737821368277</v>
       </c>
       <c r="I92" s="12">
         <f t="shared" ref="I92:I93" si="11">H92/G92</f>
-        <v>0.11561992197416607</v>
+        <v>0.11629850155215092</v>
       </c>
       <c r="J92" s="12"/>
     </row>
-    <row r="93" spans="1:60" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:60" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>94</v>
       </c>
@@ -10771,7 +10864,12 @@
       <c r="J93" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:BH92" xr:uid="{ACE3BFDD-59D1-4B27-9075-EE1358A63C93}">
+  <autoFilter ref="A2:BH93" xr:uid="{ACE3BFDD-59D1-4B27-9075-EE1358A63C93}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="30"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:BH92">
       <sortCondition ref="E2:E92"/>
     </sortState>
